--- a/Software specification/RTM.xlsx
+++ b/Software specification/RTM.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moamen\Desktop\SWE\Software specification\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474CBDC-D5A4-4FAA-A676-FFE1E98FB592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_Toc30697436">Sheet1!$I$5</definedName>
+    <definedName name="_Toc30697436" localSheetId="0">Sheet1!$I$5</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjUUwAN8L3rIpndgcaxzZP+i5AGww=="/>
@@ -18,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>Requirment ID</t>
   </si>
@@ -50,9 +60,6 @@
     <t>Req_ PO1_DGC_CRS_01_V1.0</t>
   </si>
   <si>
-    <t>The digital calculator should have buttons for all basic mathematical</t>
-  </si>
-  <si>
     <t>Req_PO1_DGC_CYRS_001_v1.0</t>
   </si>
   <si>
@@ -126,32 +133,67 @@
   </si>
   <si>
     <t>Req_PO1_DGC_SRS_010_v1.0</t>
+  </si>
+  <si>
+    <t>The digital calculator should have buttons for all basic mathematical
+operations and button to open/close calculator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWC_DGC_HSI_001_v1.1 </t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWC_DGC_HSI_002_v1.1 </t>
+  </si>
+  <si>
+    <t>HWC_DGC_HSI_004_v1.1</t>
+  </si>
+  <si>
+    <t>HWC_DGC_HSI_003_v1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF757070"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,7 +201,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -168,8 +210,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -177,9 +225,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -191,14 +241,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -207,11 +262,18 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -226,128 +288,162 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -537,34 +633,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.14"/>
-    <col customWidth="1" min="2" max="2" width="61.71"/>
-    <col customWidth="1" min="3" max="3" width="43.0"/>
-    <col customWidth="1" min="4" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="13.43"/>
-    <col customWidth="1" min="6" max="6" width="27.29"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="9" width="23.43"/>
-    <col customWidth="1" min="10" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="10.57"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,385 +697,405 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="I4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="I9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="35"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="35"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="35"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="I13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1">
+      <c r="C27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1">
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1">
+      <c r="C29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1">
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1947,11 +2065,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E12"/>
@@ -1959,10 +2072,13 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Software specification/RTM.xlsx
+++ b/Software specification/RTM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moamen\Desktop\SWE\Software specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474CBDC-D5A4-4FAA-A676-FFE1E98FB592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE5007-6290-4CE4-BE54-214D83FE89BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc30697436" localSheetId="0">Sheet1!$I$5</definedName>
+    <definedName name="_Toc30697436" localSheetId="0">Sheet1!$I$11</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Requirment ID</t>
   </si>
@@ -60,42 +60,24 @@
     <t>Req_ PO1_DGC_CRS_01_V1.0</t>
   </si>
   <si>
-    <t>Req_PO1_DGC_CYRS_001_v1.0</t>
-  </si>
-  <si>
     <t>v1.0</t>
   </si>
   <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_CYRS_002_v1.0</t>
-  </si>
-  <si>
     <t>Req_PO1_DGC_SRS_001_v1.0</t>
   </si>
   <si>
     <t>Req_ PO1_DGC_CRS_02_V1.0</t>
   </si>
   <si>
-    <t>The user should enter the numbers and select the operations need</t>
-  </si>
-  <si>
     <t>Req_PO1_DGC_CYRS_003_v1.0</t>
   </si>
   <si>
     <t>Req_PO1_DGC_SRS_002_v1.0</t>
   </si>
   <si>
-    <t>Req_PO1_DGC_CYRS_004_v1.0</t>
-  </si>
-  <si>
     <t>Req_PO1_DGC_SRS_003_v1.0</t>
   </si>
   <si>
-    <t>Req_PO1_DGC_CYRS_005_v1.0</t>
-  </si>
-  <si>
     <t>Req_PO1_DGC_SRS_004_v1.0</t>
   </si>
   <si>
@@ -105,12 +87,6 @@
     <t>Req_ PO1_DGC_CRS_03_V1.0</t>
   </si>
   <si>
-    <t>Both the operations and result shall be appeared on a display.</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_CYRS_006_v1.1</t>
-  </si>
-  <si>
     <t>v1.1</t>
   </si>
   <si>
@@ -123,13 +99,7 @@
     <t>Req_PO1_DGC_SRS_008_v1.0</t>
   </si>
   <si>
-    <t>Req_PO1_DGC_SRS_009_v1.0</t>
-  </si>
-  <si>
     <t>When the user press any key , it must be followed by a tune</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_CYRS_007_v1.0</t>
   </si>
   <si>
     <t>Req_PO1_DGC_SRS_010_v1.0</t>
@@ -152,6 +122,72 @@
   </si>
   <si>
     <t>HWC_DGC_HSI_003_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_CYRS_001_v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_002_v1.2 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_CYRS_004_v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_005_v1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_006_v1.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_007_v1.1 </t>
+  </si>
+  <si>
+    <t>v1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_008_v1.0 </t>
+  </si>
+  <si>
+    <t>The user should enter the numbers and select the operation</t>
+  </si>
+  <si>
+    <t>Pressing the equal button displays both the operations and result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_009_v1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_010_v1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_011_v1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_012_v1.0 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0010_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0011_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0012_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0013_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0014_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0015_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0016_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_0017_v1.0</t>
   </si>
 </sst>
 </file>
@@ -181,17 +217,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -210,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -299,6 +336,78 @@
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -309,15 +418,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -331,48 +437,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,30 +484,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L999"/>
+  <dimension ref="A1:L1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -651,13 +832,13 @@
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
   </cols>
@@ -698,420 +879,514 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="40"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="H17" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="D19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="G19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="15" t="s">
+      <c r="I19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1">
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="6"/>
+    </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C27" s="30"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="C25" s="41"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="3:3" ht="14.25" customHeight="1">
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="3:3" ht="14.25" customHeight="1">
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="3:3" ht="14.25" customHeight="1">
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="3:3" ht="14.25" customHeight="1">
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1163,12 +1438,12 @@
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1"/>
     <row r="108" ht="15.75" customHeight="1"/>
@@ -2063,20 +2338,28 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
+  <mergeCells count="14">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Software specification/RTM.xlsx
+++ b/Software specification/RTM.xlsx
@@ -1,34 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moamen\Desktop\SWE\Software specification\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE5007-6290-4CE4-BE54-214D83FE89BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc30697436" localSheetId="0">Sheet1!$I$11</definedName>
+    <definedName localSheetId="0" name="_Toc30697436">Sheet1!$F$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjUUwAN8L3rIpndgcaxzZP+i5AGww=="/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Requirment ID</t>
   </si>
@@ -39,198 +24,176 @@
     <t>CYRS Requirment ID</t>
   </si>
   <si>
+    <t>SRS Requirment ID</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>CYRS Status</t>
-  </si>
-  <si>
-    <t>SRS Requirment ID</t>
-  </si>
-  <si>
-    <t>SRS Status</t>
-  </si>
-  <si>
     <t>HSI Requirment ID</t>
   </si>
   <si>
-    <t>HSI Status</t>
-  </si>
-  <si>
     <t>Req_ PO1_DGC_CRS_01_V1.0</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_001_v1.0</t>
-  </si>
-  <si>
-    <t>Req_ PO1_DGC_CRS_02_V1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_CYRS_003_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_002_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_003_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_004_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_005_v1.0</t>
-  </si>
-  <si>
-    <t>Req_ PO1_DGC_CRS_03_V1.0</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_006_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_007_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_008_v1.0</t>
-  </si>
-  <si>
-    <t>When the user press any key , it must be followed by a tune</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_010_v1.0</t>
   </si>
   <si>
     <t>The digital calculator should have buttons for all basic mathematical
 operations and button to open/close calculator.</t>
   </si>
   <si>
+    <t>Req_PO1_DGC_CYRS_001_v1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">HWC_DGC_HSI_001_v1.1 </t>
   </si>
   <si>
-    <t>Proposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HWC_DGC_HSI_002_v1.1 </t>
-  </si>
-  <si>
-    <t>HWC_DGC_HSI_004_v1.1</t>
-  </si>
-  <si>
-    <t>HWC_DGC_HSI_003_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_CYRS_001_v1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Req_PO1_DGC_CYRS_002_v1.2 </t>
   </si>
   <si>
+    <t>Req_PO1_DGC_SRS_001_v1.0</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_009_v1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_SRS_018_v1.1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_010_v1.0 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_019_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_020_v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_011_v1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_SRS_021_v1.1
+</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_022_v1.1</t>
+  </si>
+  <si>
+    <t>Req_ PO1_DGC_CRS_02_V1.0</t>
+  </si>
+  <si>
+    <t>The user should enter the numbers and select the operation</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_CYRS_003_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_002_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_003_v1.1</t>
+  </si>
+  <si>
     <t>Req_PO1_DGC_CYRS_004_v1.1</t>
   </si>
   <si>
+    <t>Req_PO1_DGC_SRS_004_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_005_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_006_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_007_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_008_v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_SRS_009_v1.1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Req_PO1_DGC_CYRS_005_v1.0 </t>
   </si>
   <si>
+    <t>Req_PO1_DGC_SRS_010_v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_008_v1.0 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_016_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_017_v1.1</t>
+  </si>
+  <si>
+    <t>Req_ PO1_DGC_CRS_03_V1.0</t>
+  </si>
+  <si>
+    <t>Pressing the equal button displays both the operations and result.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Req_PO1_DGC_CYRS_006_v1.1 </t>
   </si>
   <si>
+    <t>Req_PO1_DGC_SRS_011_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_012_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_013_v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_012_v1.0 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_023_v1.1</t>
+  </si>
+  <si>
+    <t>When the user press any key , it must be followed by a tune</t>
+  </si>
+  <si>
     <t xml:space="preserve">Req_PO1_DGC_CYRS_007_v1.1 </t>
   </si>
   <si>
-    <t>v1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_008_v1.0 </t>
-  </si>
-  <si>
-    <t>The user should enter the numbers and select the operation</t>
-  </si>
-  <si>
-    <t>Pressing the equal button displays both the operations and result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_009_v1.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_010_v1.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_011_v1.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_012_v1.0 </t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0010_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0011_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0012_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0013_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0014_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0015_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0016_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_0017_v1.0</t>
+    <t>Req_PO1_DGC_SRS_014_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_015_v1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF757070"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,7 +201,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,14 +210,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="10">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -262,11 +219,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -278,19 +233,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -299,18 +249,24 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -325,306 +281,138 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="39">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -814,36 +602,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1005"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="29.14"/>
+    <col customWidth="1" min="2" max="2" width="61.71"/>
+    <col customWidth="1" min="3" max="3" width="43.0"/>
+    <col customWidth="1" min="4" max="4" width="29.57"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="23.43"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,530 +645,425 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="15.0" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="50" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" ht="15.0" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="56" t="s">
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="56" t="s">
+      <c r="D24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="56" t="s">
+      <c r="E24" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1">
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C25" s="41"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="3:3" ht="14.25" customHeight="1">
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="3:3" ht="14.25" customHeight="1">
-      <c r="C34" s="22"/>
-    </row>
-    <row r="35" spans="3:3" ht="14.25" customHeight="1">
-      <c r="C35" s="22"/>
-    </row>
-    <row r="36" spans="3:3" ht="14.25" customHeight="1">
-      <c r="C36" s="22"/>
-    </row>
-    <row r="37" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="3:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="3:3" ht="14.25" customHeight="1"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1444,12 +1121,12 @@
     <row r="103" ht="14.25" customHeight="1"/>
     <row r="104" ht="14.25" customHeight="1"/>
     <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
@@ -2344,24 +2021,28 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D14:D15"/>
+  <mergeCells count="15">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Software specification/RTM.xlsx
+++ b/Software specification/RTM.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_Toc30697436">Sheet1!$F$11</definedName>
+    <definedName localSheetId="0" name="_Toc30697436">Sheet1!$F$21</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Requirment ID</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>HSI Requirment ID</t>
+  </si>
+  <si>
+    <t>GDD Requirment ID</t>
   </si>
   <si>
     <t>Req_ PO1_DGC_CRS_01_V1.0</t>
@@ -49,112 +52,127 @@
     <t xml:space="preserve">Req_PO1_DGC_CYRS_002_v1.2 </t>
   </si>
   <si>
-    <t>Req_PO1_DGC_SRS_001_v1.0</t>
+    <t>Req_PO1_DGC_SRS_001_v1.3</t>
   </si>
   <si>
     <t>v1.0</t>
   </si>
   <si>
+    <t>Req_PO1_DGC_GDD_001 V1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_011 V1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Req_PO1_DGC_CYRS_009_v1.0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Req_PO1_DGC_SRS_018_v1.1
-</t>
+    <t>Req_PO1_DGC_SRS_015_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_002 V1.4</t>
   </si>
   <si>
     <t xml:space="preserve">Req_PO1_DGC_CYRS_010_v1.0 </t>
   </si>
   <si>
-    <t>Req_PO1_DGC_SRS_019_v1.1</t>
+    <t>Req_PO1_DGC_SRS_016_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_003 V1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_005 V1.4</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_017_v1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_011_v1.0 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_018_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_019_v1.3</t>
+  </si>
+  <si>
+    <t>Req_ PO1_DGC_CRS_02_V1.0</t>
+  </si>
+  <si>
+    <t>The user should enter the numbers and select the operation</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_CYRS_003_v1.0</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_002_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_004 V1.4</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_010 V1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_003_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_CYRS_004_v1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_004_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_005_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_006_v1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_005_v1.0 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_007_v1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_008_v1.0 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_013_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_014_v1.3</t>
+  </si>
+  <si>
+    <t>Req_ PO1_DGC_CRS_03_V1.0</t>
+  </si>
+  <si>
+    <t>Pressing the equal button displays both the operations and result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_006_v1.1 </t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_008_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_009_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_010_v1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO1_DGC_CYRS_012_v1.0 </t>
   </si>
   <si>
     <t>Req_PO1_DGC_SRS_020_v1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_011_v1.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_SRS_021_v1.1
-</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_022_v1.1</t>
-  </si>
-  <si>
-    <t>Req_ PO1_DGC_CRS_02_V1.0</t>
-  </si>
-  <si>
-    <t>The user should enter the numbers and select the operation</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_CYRS_003_v1.0</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_002_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_003_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_CYRS_004_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_004_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_005_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_006_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_007_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_008_v1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_SRS_009_v1.1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_005_v1.0 </t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_010_v1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_008_v1.0 </t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_016_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_017_v1.1</t>
-  </si>
-  <si>
-    <t>Req_ PO1_DGC_CRS_03_V1.0</t>
-  </si>
-  <si>
-    <t>Pressing the equal button displays both the operations and result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_006_v1.1 </t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_011_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_012_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_013_v1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO1_DGC_CYRS_012_v1.0 </t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_023_v1.1</t>
+    <t>Req_PO1_DGC_GDD_007 V1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_021 V1.1</t>
   </si>
   <si>
     <t>When the user press any key , it must be followed by a tune</t>
@@ -163,17 +181,26 @@
     <t xml:space="preserve">Req_PO1_DGC_CYRS_007_v1.1 </t>
   </si>
   <si>
-    <t>Req_PO1_DGC_SRS_014_v1.1</t>
-  </si>
-  <si>
-    <t>Req_PO1_DGC_SRS_015_v1.1</t>
+    <t>Req_PO1_DGC_SRS_011_v1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_006 V1.3</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_012 V1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_GDD_013 V1.1</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_SRS_012_v1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -195,6 +222,11 @@
       <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -210,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border/>
     <border>
       <left style="thin">
@@ -287,17 +319,28 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,32 +356,37 @@
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -346,16 +394,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -363,42 +414,47 @@
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -622,7 +678,7 @@
     <col customWidth="1" hidden="1" min="5" max="5" width="8.71"/>
     <col customWidth="1" min="6" max="6" width="23.43"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="29.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -647,438 +703,709 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="7"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="7"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="29" t="s">
-        <v>37</v>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="24"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="7"/>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="30" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="15.0" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="15.0" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="15.0" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="15.0" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="C33" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="D33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="36" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="23"/>
+      <c r="D39" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="23"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="23"/>
+      <c r="A41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="23" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="23"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+    </row>
     <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="C52" s="44"/>
+    </row>
     <row r="53" ht="14.25" customHeight="1"/>
     <row r="54" ht="14.25" customHeight="1"/>
     <row r="55" ht="14.25" customHeight="1"/>
     <row r="56" ht="14.25" customHeight="1"/>
     <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="C60" s="24"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="C61" s="24"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="C62" s="24"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="C63" s="24"/>
+    </row>
     <row r="64" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
@@ -1127,27 +1454,27 @@
     <row r="109" ht="14.25" customHeight="1"/>
     <row r="110" ht="14.25" customHeight="1"/>
     <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
     <row r="133" ht="15.75" customHeight="1"/>
     <row r="134" ht="15.75" customHeight="1"/>
     <row r="135" ht="15.75" customHeight="1"/>
@@ -2022,23 +2349,62 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+  <mergeCells count="39">
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
